--- a/src/test/resources/TestData/Team05-API Squad Test Data.xlsx
+++ b/src/test/resources/TestData/Team05-API Squad Test Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajav\git\Team05_APISquad\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prasa\git\Team05_APISquad\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E92AAD-ADDA-49E0-B145-7ACB4DCC0402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78897912-1977-45DC-897F-BC0222AB75EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30585" yWindow="2370" windowWidth="18000" windowHeight="9270" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="237">
   <si>
     <t>ScenarioName</t>
   </si>
@@ -696,16 +696,62 @@
   <si>
     <t>[{"roleId": "R01", "userRoleStatus": "Active"}]</t>
   </si>
+  <si>
+    <t>GETuserbyValidProgramID</t>
+  </si>
+  <si>
+    <t>GETuserbyInValidProgramID</t>
+  </si>
+  <si>
+    <t>/users/programs/12</t>
+  </si>
+  <si>
+    <t>U08</t>
+  </si>
+  <si>
+    <t>Update Existing User ID with mandatory fields</t>
+  </si>
+  <si>
+    <t>updaterestapi</t>
+  </si>
+  <si>
+    <t>Computer Science Engineering</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Peterson</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/MariaPeterson/</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>/users/{userId}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -966,123 +1012,125 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1305,12 +1353,12 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" customWidth="1"/>
-    <col min="9" max="26" width="21.5703125" customWidth="1"/>
+    <col min="1" max="6" width="21.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="34.81640625" customWidth="1"/>
+    <col min="9" max="26" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -29431,17 +29479,17 @@
       <selection activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="5" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" customWidth="1"/>
+    <col min="4" max="5" width="18.81640625" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="8" width="25.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="10" width="114.42578125" customWidth="1"/>
-    <col min="11" max="28" width="8.7109375" customWidth="1"/>
+    <col min="7" max="8" width="25.453125" customWidth="1"/>
+    <col min="9" max="9" width="19.81640625" customWidth="1"/>
+    <col min="10" max="10" width="114.453125" customWidth="1"/>
+    <col min="11" max="28" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="14.25" customHeight="1">
@@ -29524,7 +29572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" ht="14.5">
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
@@ -29554,7 +29602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" ht="14.5">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -29636,7 +29684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" ht="14.5">
       <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
@@ -32167,20 +32215,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="19.453125" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" customWidth="1"/>
+    <col min="12" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="14.25" customHeight="1">
@@ -34424,31 +34472,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4288ABC0-DE51-4F1D-BF0D-EE92A041B4A9}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" customWidth="1"/>
+    <col min="9" max="9" width="19.453125" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="13" max="13" width="19.7265625" customWidth="1"/>
+    <col min="14" max="14" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="67.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.7265625" customWidth="1"/>
+    <col min="17" max="17" width="67.1796875" customWidth="1"/>
+    <col min="20" max="20" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="64" customWidth="1"/>
-    <col min="24" max="24" width="87.140625" customWidth="1"/>
+    <col min="24" max="24" width="87.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="14.25" customHeight="1">
@@ -34622,11 +34672,90 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="M6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N6" t="s">
+        <v>230</v>
+      </c>
+      <c r="O6" t="s">
+        <v>231</v>
+      </c>
+      <c r="P6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q6" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="R6" t="s">
+        <v>234</v>
+      </c>
+      <c r="S6" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="T6" s="51">
+        <v>6512391300</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" xr:uid="{E3FE39B1-0B35-42D0-ACBB-B7E8C451EFCD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/TestData/Team05-API Squad Test Data.xlsx
+++ b/src/test/resources/TestData/Team05-API Squad Test Data.xlsx
@@ -5,20 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayau\OneDrive\Desktop\GIT-TEAM5-REST ASSURED-JAN 2026\Team 5 Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onlin\eclipse-workspace\Team05_APISquad\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ED3BF9-EEB5-46FD-B501-3C27E8D6994D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAED6156-C09C-40AF-B060-27E7BD7BB012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Program" sheetId="2" r:id="rId2"/>
     <sheet name="Batch" sheetId="3" r:id="rId3"/>
+    <sheet name="SkillMaster" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="V7gfgs95oMe8R0X1XyBm5VQ3wOPA245uiiS1n805UL0="/>
     </ext>
@@ -27,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="209">
   <si>
     <t>ScenarioName</t>
   </si>
@@ -583,16 +593,95 @@
   <si>
     <t>Get Batch Details by Batch Id</t>
   </si>
+  <si>
+    <t>SkillId</t>
+  </si>
+  <si>
+    <t>SkillName</t>
+  </si>
+  <si>
+    <t>CreationTime</t>
+  </si>
+  <si>
+    <t>LastModTime</t>
+  </si>
+  <si>
+    <t>Create Skill</t>
+  </si>
+  <si>
+    <t>/saveSkillMaster</t>
+  </si>
+  <si>
+    <t>Skill_98525</t>
+  </si>
+  <si>
+    <t>2026-01-14T02:14:41.422507700Z</t>
+  </si>
+  <si>
+    <t>Update Skill</t>
+  </si>
+  <si>
+    <t>/allSkillMaster</t>
+  </si>
+  <si>
+    <t>Existing values</t>
+  </si>
+  <si>
+    <t>Missing Mandatory Fields</t>
+  </si>
+  <si>
+    <t>GetAllSkills</t>
+  </si>
+  <si>
+    <t>GetSkillValidEndpoint</t>
+  </si>
+  <si>
+    <t>Update Skill invalid endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/updateSkills/{Skillid} </t>
+  </si>
+  <si>
+    <t>/skills/{SkillName}</t>
+  </si>
+  <si>
+    <t>Delete Valid endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/SSdeletebySkillId/{skillId} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/pdateSkills/{Skillid} </t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>GetSkillInvalidEndpoint</t>
+  </si>
+  <si>
+    <t>Delete In Valid endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/deletebySkillId/{skillId} </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -685,8 +774,20 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,8 +824,14 @@
         <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -784,105 +891,149 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,12 +1256,12 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" customWidth="1"/>
-    <col min="9" max="26" width="21.5703125" customWidth="1"/>
+    <col min="1" max="6" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="34.88671875" customWidth="1"/>
+    <col min="9" max="26" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -29228,20 +29379,20 @@
   <dimension ref="A1:AB1012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J2"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="5" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="8" width="25.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="10" width="114.42578125" customWidth="1"/>
-    <col min="11" max="28" width="8.7109375" customWidth="1"/>
+    <col min="7" max="8" width="25.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" customWidth="1"/>
+    <col min="10" max="10" width="114.44140625" customWidth="1"/>
+    <col min="11" max="28" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="14.25" customHeight="1">
@@ -29324,7 +29475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" ht="14.4">
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
@@ -29354,7 +29505,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" ht="14.4">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -29436,7 +29587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" ht="14.4">
       <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
@@ -30397,7 +30548,7 @@
       <c r="AB36" s="11"/>
     </row>
     <row r="37" spans="1:28" ht="14.25" customHeight="1">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="47" t="s">
         <v>92</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -31963,24 +32114,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+    <col min="12" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="14.25" customHeight="1">
@@ -34222,6 +34373,321 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A54AB9C-8829-4471-A75C-79F61137BE41}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="44.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="55"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" s="54">
+        <v>201</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="54">
+        <v>400</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="54">
+        <v>500</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.6">
+      <c r="A5" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="54">
+        <v>200</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" s="56"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6">
+      <c r="A6" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="54">
+        <v>200</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="56"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.6">
+      <c r="A7" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="54">
+        <v>404</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="56"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6">
+      <c r="A8" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="54">
+        <v>200</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8" s="56"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6">
+      <c r="A9" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="54">
+        <v>400</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="56"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="54">
+        <v>200</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="55"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="54">
+        <v>404</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{d9290083-bd2f-48a2-8ac5-09a524b17d15}" enabled="1" method="Privileged" siteId="{b9fec68c-c92d-461e-9a97-3d03a0f18b82}" contentBits="1" removed="0"/>
